--- a/src/attributions/attributions_ig_traj_317.xlsx
+++ b/src/attributions/attributions_ig_traj_317.xlsx
@@ -1007,79 +1007,79 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.9993146397459965</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0.1880462314427948</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2643560902703973</v>
+        <v>-0.1714250431640147</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5372950005655688</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5794047944184146</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.5366890258076726</v>
       </c>
       <c r="L2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-0.2191943946599505</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2347872203987595</v>
+        <v>-0.07531201027041269</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.4271172306144074</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4368691745774271</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>-0</v>
       </c>
       <c r="S2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.1888242731910357</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V2" t="n">
-        <v>-0</v>
+        <v>-0.03491220716361781</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1213199876950265</v>
+        <v>0.04112688148520702</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.1474784017172897</v>
+        <v>-0</v>
       </c>
       <c r="Y2" t="n">
         <v>-0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.1004259347112391</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -1088,25 +1088,25 @@
         <v>-0</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0</v>
+        <v>0.1984389770313054</v>
       </c>
       <c r="AD2" t="n">
         <v>-0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>-0.05279817565431985</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.3332587637256165</v>
+        <v>0.01106948684524994</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.06848186305444166</v>
+        <v>-0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0853507503319144</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
         <v>-0</v>
@@ -1115,52 +1115,52 @@
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>0.1098843790816191</v>
       </c>
       <c r="AM2" t="n">
         <v>-0</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0</v>
+        <v>-0.07115234988343493</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.2027669551838295</v>
+        <v>-0.04319062428223332</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.03120616924427795</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.04828339329425652</v>
+        <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>0.4976472599148012</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>-0.004249993027951406</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.1119290066773587</v>
+        <v>0.02022327219701178</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.2848423948410489</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.1942196060389224</v>
+        <v>0</v>
       </c>
       <c r="BB2" t="n">
         <v>0</v>
@@ -1169,52 +1169,52 @@
         <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>0.1784002967574037</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>0</v>
+        <v>-0.09387079741627639</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.1724694960632275</v>
+        <v>-0.2551693714716207</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.07008489686042567</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.1918074822778559</v>
+        <v>0</v>
       </c>
       <c r="BK2" t="n">
         <v>-0</v>
       </c>
       <c r="BL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0</v>
+        <v>0.03606928234421171</v>
       </c>
       <c r="BN2" t="n">
         <v>-0</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0</v>
+        <v>-0.04869759727457275</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.01597631182321161</v>
+        <v>0.121066711482997</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.0729690540646958</v>
+        <v>-0</v>
       </c>
       <c r="BR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.009192878613666409</v>
+        <v>-0</v>
       </c>
       <c r="BT2" t="n">
         <v>-0</v>
@@ -1223,187 +1223,187 @@
         <v>-0</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0</v>
+        <v>0.3441128736294349</v>
       </c>
       <c r="BW2" t="n">
         <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0</v>
+        <v>-0.04233260628690172</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.03972371412834284</v>
+        <v>0.09480287950832175</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.288756827075553</v>
+        <v>-0</v>
       </c>
       <c r="CA2" t="n">
         <v>0</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.1514626569983511</v>
+        <v>0</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0</v>
+        <v>-0.1913896341370187</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0</v>
+        <v>0.04101898848135863</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.0798963664994341</v>
+        <v>-0.01847273611422675</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.1130201271008968</v>
+        <v>-0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.1205282536526614</v>
+        <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM2" t="n">
         <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0</v>
+        <v>0.03582741816708116</v>
       </c>
       <c r="CO2" t="n">
         <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0</v>
+        <v>-0.05058190521671795</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.01820626015686687</v>
+        <v>-0.1953715550215852</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.2323206006344564</v>
+        <v>0</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.1226124481996865</v>
+        <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV2" t="n">
         <v>-0</v>
       </c>
       <c r="CW2" t="n">
-        <v>0</v>
+        <v>-0.2008362644533669</v>
       </c>
       <c r="CX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>0</v>
+        <v>0.04901358994275447</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.066901655701692</v>
+        <v>-0.02762724467243059</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.111858681680986</v>
+        <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.1617846805433981</v>
+        <v>0</v>
       </c>
       <c r="DD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE2" t="n">
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0</v>
+        <v>-0.07434312797320351</v>
       </c>
       <c r="DG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>0.09223395592440012</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.103375421749874</v>
+        <v>0.1250492300792749</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.0003191479004984001</v>
+        <v>-0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.01188221315506699</v>
+        <v>-0</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0</v>
+        <v>-0.07051490117378462</v>
       </c>
       <c r="DP2" t="n">
         <v>-0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>-0.05142581736891507</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.01854549623593317</v>
+        <v>-0.0982896079908889</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.04452535326629405</v>
+        <v>-0</v>
       </c>
       <c r="DT2" t="n">
         <v>-0</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.08379578089673345</v>
+        <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW2" t="n">
         <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0</v>
+        <v>0.1251855303992438</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0</v>
+        <v>-0.08669311122127062</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.03449491991099816</v>
+        <v>0.05984278336463478</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.03306152110193757</v>
+        <v>0</v>
       </c>
       <c r="EC2" t="n">
         <v>0</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.0182227200767457</v>
+        <v>0</v>
       </c>
       <c r="EE2" t="n">
         <v>0</v>
@@ -1412,168 +1412,168 @@
         <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0</v>
+        <v>-0.1672205814717104</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0</v>
+        <v>0.022267092239796</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.03670546777312363</v>
+        <v>-0.1371682097412814</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.1761423882135871</v>
+        <v>0</v>
       </c>
       <c r="EL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.104625630066736</v>
+        <v>-0</v>
       </c>
       <c r="EN2" t="n">
         <v>-0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0</v>
+        <v>-0.1569381228313191</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0</v>
+        <v>0.001537572724283855</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.1700947021789993</v>
+        <v>-0.03521338411668703</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.09252766817684774</v>
+        <v>-0</v>
       </c>
       <c r="EU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.1338569378686718</v>
+        <v>-0</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX2" t="n">
         <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>-0.2092833722392584</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0</v>
+        <v>0.03623380786992013</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.1049456216595782</v>
+        <v>-0.02575549347593614</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.1103884606445435</v>
+        <v>-0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.1711166316599817</v>
+        <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH2" t="n">
-        <v>0</v>
+        <v>-0.03598082912731602</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0</v>
+        <v>0.06632099893233542</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.03199394823600148</v>
+        <v>-0.1242884529974941</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.06329206447890481</v>
+        <v>-0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>-0.05718613436490966</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0</v>
+        <v>-0.1142121185414288</v>
       </c>
       <c r="FR2" t="n">
         <v>-0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>0.1298101951319458</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.01038412067651255</v>
+        <v>-0.04603239838852444</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.1786278123927894</v>
+        <v>-0</v>
       </c>
       <c r="FV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW2" t="n">
-        <v>-0.1704655928131912</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY2" t="n">
         <v>-0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0</v>
+        <v>-0.07575575644486716</v>
       </c>
       <c r="GA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB2" t="n">
-        <v>0</v>
+        <v>-0.07378646165408284</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0.07524386738414247</v>
+        <v>-0</v>
       </c>
       <c r="GE2" t="n">
         <v>0</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.04016586605726292</v>
+        <v>0</v>
       </c>
       <c r="GG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
@@ -1678,10 +1678,10 @@
         <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL3" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1732,10 +1732,10 @@
         <v>0</v>
       </c>
       <c r="BB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD3" t="n">
         <v>0</v>
@@ -1759,10 +1759,10 @@
         <v>0</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM3" t="n">
         <v>0</v>
@@ -1786,10 +1786,10 @@
         <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV3" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="CC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE3" t="n">
         <v>0</v>
@@ -1840,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN3" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="CU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV3" t="n">
         <v>0</v>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX3" t="n">
         <v>0</v>
@@ -1975,10 +1975,10 @@
         <v>0</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG3" t="n">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="EN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP3" t="n">
         <v>0</v>
@@ -2029,10 +2029,10 @@
         <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY3" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>0</v>
       </c>
       <c r="FF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH3" t="n">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="FO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ3" t="n">
         <v>0</v>
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="FX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
         <v>0</v>
@@ -2145,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -2199,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -2268,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AV4" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA4" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BE4" t="n">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="BI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ4" t="n">
         <v>0</v>
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BN4" t="n">
         <v>0</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="BR4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS4" t="n">
         <v>0</v>
@@ -2361,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="CA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB4" t="n">
         <v>0</v>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CF4" t="n">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK4" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO4" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="CS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT4" t="n">
         <v>0</v>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="DK4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL4" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DY4" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="EC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED4" t="n">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EH4" t="n">
         <v>0</v>
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="EL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
         <v>0</v>
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EQ4" t="n">
         <v>0</v>
@@ -2592,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="EU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV4" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EZ4" t="n">
         <v>0</v>
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="FD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE4" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FI4" t="n">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="FM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN4" t="n">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="FV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW4" t="n">
         <v>0</v>
@@ -2711,52 +2711,52 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.950187333676567</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>-0.7086594723034525</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5441533464717011</v>
+        <v>-0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.8410089076440637</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1541456334847613</v>
+        <v>0.02998871231035606</v>
       </c>
       <c r="F5" t="n">
         <v>-0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9605796687143463</v>
+        <v>-0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>-0.4721760938508761</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.4932096481305398</v>
+        <v>-0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.7859504362087734</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.1418595603346987</v>
+        <v>0.07745248670353802</v>
       </c>
       <c r="O5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q5" t="n">
         <v>-0</v>
@@ -2765,25 +2765,25 @@
         <v>-0</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.02503871576710661</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-0</v>
+        <v>-0.179798170957105</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.07972161112081209</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.05759577494294525</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.1202021655857858</v>
+        <v>-0.02080037281984061</v>
       </c>
       <c r="X5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
         <v>-0</v>
@@ -2792,46 +2792,46 @@
         <v>-0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.06556286147807022</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0</v>
+        <v>-0.1163377017285103</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.1003085568801607</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>0.103663730896983</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.1145882978103711</v>
+        <v>-0.05517537346936537</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.217763003116577</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>-0.09845066088063925</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0.07330061744395104</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>0.08105785337520885</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.06015201078157377</v>
+        <v>0.05602075002332013</v>
       </c>
       <c r="AP5" t="n">
         <v>-0</v>
@@ -2843,22 +2843,22 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.4457545277518797</v>
+        <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>-0.3714139687205934</v>
       </c>
       <c r="AV5" t="n">
-        <v>-0.3312725402979175</v>
+        <v>0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0</v>
+        <v>0.2475305694754233</v>
       </c>
       <c r="AX5" t="n">
-        <v>-0.1755020508797754</v>
+        <v>-0.1312931321743758</v>
       </c>
       <c r="AY5" t="n">
         <v>0</v>
@@ -2867,25 +2867,25 @@
         <v>-0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
         <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.164472442235946</v>
+        <v>-0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>-0.1914014938082297</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0.1200346860042772</v>
+        <v>-0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0</v>
+        <v>0.3263472640836555</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.2356829999699007</v>
+        <v>0.2145669197705451</v>
       </c>
       <c r="BH5" t="n">
         <v>-0</v>
@@ -2894,28 +2894,28 @@
         <v>0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0.08084401541338658</v>
+        <v>0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>-0.08694538615607267</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.1221880639860558</v>
+        <v>-0</v>
       </c>
       <c r="BO5" t="n">
-        <v>-0</v>
+        <v>0.0911658867593326</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.2386048347651979</v>
+        <v>-0.1654673572237439</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR5" t="n">
         <v>-0</v>
@@ -2924,55 +2924,55 @@
         <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.3633422392833362</v>
+        <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>-0.2430543190070406</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0.2178540929647088</v>
+        <v>-0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0</v>
+        <v>0.1433882155440886</v>
       </c>
       <c r="BY5" t="n">
-        <v>-0.01588667449083144</v>
+        <v>-0.1703754647986475</v>
       </c>
       <c r="BZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA5" t="n">
         <v>-0</v>
       </c>
       <c r="CB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC5" t="n">
         <v>-0</v>
       </c>
       <c r="CD5" t="n">
-        <v>-0.2081844554265368</v>
+        <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>0.1211107417633771</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.107951515685101</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0</v>
+        <v>-0.139253349517886</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.0005885524889287885</v>
+        <v>0.02181038568039272</v>
       </c>
       <c r="CI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK5" t="n">
         <v>0</v>
@@ -2981,19 +2981,19 @@
         <v>0</v>
       </c>
       <c r="CM5" t="n">
-        <v>-0.0475589425248133</v>
+        <v>-0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>-0.0162251149026494</v>
       </c>
       <c r="CO5" t="n">
-        <v>-0.008552923464558866</v>
+        <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>0</v>
+        <v>0.03171846659019248</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0.07617401554184941</v>
+        <v>0.07942009121021622</v>
       </c>
       <c r="CR5" t="n">
         <v>-0</v>
@@ -3002,31 +3002,31 @@
         <v>0</v>
       </c>
       <c r="CT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU5" t="n">
         <v>-0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0.1844220213410917</v>
+        <v>-0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0</v>
+        <v>0.1330547574140201</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.116528442210566</v>
+        <v>0</v>
       </c>
       <c r="CY5" t="n">
-        <v>0</v>
+        <v>-0.1319279106146896</v>
       </c>
       <c r="CZ5" t="n">
-        <v>-0.07637013061586737</v>
+        <v>0.01139896722554616</v>
       </c>
       <c r="DA5" t="n">
         <v>-0</v>
       </c>
       <c r="DB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC5" t="n">
         <v>-0</v>
@@ -3035,19 +3035,19 @@
         <v>-0</v>
       </c>
       <c r="DE5" t="n">
-        <v>-0.00173182573223636</v>
+        <v>-0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>0.1241514564115869</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.05663891032443134</v>
+        <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>-0</v>
+        <v>0.00867865820231801</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.03189369723223612</v>
+        <v>-0.06568360544515235</v>
       </c>
       <c r="DJ5" t="n">
         <v>-0</v>
@@ -3056,25 +3056,25 @@
         <v>-0</v>
       </c>
       <c r="DL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM5" t="n">
         <v>-0</v>
       </c>
       <c r="DN5" t="n">
-        <v>-0.0323556699132577</v>
+        <v>0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>0.02822475013098412</v>
       </c>
       <c r="DP5" t="n">
-        <v>-0.1104460833151765</v>
+        <v>-0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>-0</v>
+        <v>-0.02765372593053477</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.06989131905574594</v>
+        <v>0.02766153163433772</v>
       </c>
       <c r="DS5" t="n">
         <v>-0</v>
@@ -3086,49 +3086,49 @@
         <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.05917297957659971</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>0</v>
+        <v>0.1159772034595191</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.08581082921241076</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0</v>
+        <v>0.1285753115955622</v>
       </c>
       <c r="EA5" t="n">
-        <v>-0.02112068144729237</v>
+        <v>0.0323268712170375</v>
       </c>
       <c r="EB5" t="n">
         <v>-0</v>
       </c>
       <c r="EC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED5" t="n">
         <v>-0</v>
       </c>
       <c r="EE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF5" t="n">
-        <v>-0.3043534882305325</v>
+        <v>-0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>0.1079628634547527</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.1531867027067863</v>
+        <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>0</v>
+        <v>-0.1008079824337839</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.02195437957586088</v>
+        <v>-0.03988600520052032</v>
       </c>
       <c r="EK5" t="n">
         <v>0</v>
@@ -3143,25 +3143,25 @@
         <v>-0</v>
       </c>
       <c r="EO5" t="n">
-        <v>-0.06650888045049082</v>
+        <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.1394698652668503</v>
       </c>
       <c r="EQ5" t="n">
-        <v>-0.1093320826661128</v>
+        <v>-0</v>
       </c>
       <c r="ER5" t="n">
-        <v>-0</v>
+        <v>-0.09681132118085786</v>
       </c>
       <c r="ES5" t="n">
-        <v>-0.06453972636536595</v>
+        <v>-0.06300273849657879</v>
       </c>
       <c r="ET5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV5" t="n">
         <v>0</v>
@@ -3170,46 +3170,46 @@
         <v>0</v>
       </c>
       <c r="EX5" t="n">
-        <v>-0.1993017560541745</v>
+        <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>0.1387827793844546</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.1193985898764217</v>
+        <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0</v>
+        <v>-0.1342304359846084</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.03378492837115312</v>
+        <v>0.02042269461083275</v>
       </c>
       <c r="FC5" t="n">
         <v>0</v>
       </c>
       <c r="FD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG5" t="n">
-        <v>-0.1513513958933567</v>
+        <v>-0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>0.003740589465110174</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.06073303060679383</v>
+        <v>-0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>-0</v>
+        <v>-0.02649977301801416</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0.06003431067477023</v>
+        <v>0.08905933153277301</v>
       </c>
       <c r="FL5" t="n">
         <v>0</v>
@@ -3221,22 +3221,22 @@
         <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
-        <v>-0.06509187867720664</v>
+        <v>-0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>0.01666214158722958</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.03134727298848139</v>
+        <v>0</v>
       </c>
       <c r="FS5" t="n">
-        <v>-0</v>
+        <v>-0.04153370833229746</v>
       </c>
       <c r="FT5" t="n">
-        <v>-0.01083025132989182</v>
+        <v>0.04620107886425804</v>
       </c>
       <c r="FU5" t="n">
         <v>0</v>
@@ -3245,31 +3245,31 @@
         <v>0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.04609281575566865</v>
+        <v>0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.01489701682633079</v>
       </c>
       <c r="GA5" t="n">
-        <v>-0.12786741717998</v>
+        <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>0</v>
+        <v>0.06676956604522326</v>
       </c>
       <c r="GC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF5" t="n">
         <v>-0</v>
